--- a/app/src/main/assets/職員薪額及專業加給表.xlsx
+++ b/app/src/main/assets/職員薪額及專業加給表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12360"/>
+    <workbookView windowWidth="21015" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table1" sheetId="1" r:id="rId1"/>
     <sheet name="Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1075,6 +1075,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
